--- a/Paperwork/Project Gantt Chart.xlsx
+++ b/Paperwork/Project Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnYieldinSpirit\Documents\Towson Work\Fall 2020\COSC 412 Individual\412-Project\Paperwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnYieldinSpirit\OneDrive\Documents\Towson Work\Fall 2020\COSC 412 Individual\412-Project\Paperwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AA155D-4267-4183-A0BE-B71C6DE243B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553892F8-8531-44EF-98DE-CE84138F027A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -1530,9 +1530,6 @@
     <t>Game Portion</t>
   </si>
   <si>
-    <t>Servers Portion</t>
-  </si>
-  <si>
     <t>C# Basics</t>
   </si>
   <si>
@@ -1569,12 +1566,6 @@
     <t>2D Modeling</t>
   </si>
   <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Multiplayer Testing</t>
-  </si>
-  <si>
     <t>Testing Portion</t>
   </si>
   <si>
@@ -1600,6 +1591,15 @@
   </si>
   <si>
     <t>412 Individual Project - "Rouge"</t>
+  </si>
+  <si>
+    <t>Website Portion</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>URL Testing</t>
   </si>
 </sst>
 </file>
@@ -2964,23 +2964,11 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2989,18 +2977,30 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3833,8 +3833,8 @@
   <dimension ref="A1:BN44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB41" sqref="AB40:AB41"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3854,7 +3854,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -3862,33 +3862,33 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="131"/>
-      <c r="K1" s="169" t="s">
+      <c r="K1" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3929,11 +3929,11 @@
       <c r="B4" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="170">
         <v>44116</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>74</v>
@@ -3943,182 +3943,182 @@
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="163" t="str">
+      <c r="K4" s="167" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="163" t="str">
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="167" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="163" t="str">
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="169"/>
+      <c r="Y4" s="167" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="164"/>
-      <c r="AA4" s="164"/>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163" t="str">
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="169"/>
+      <c r="AF4" s="167" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="164"/>
-      <c r="AI4" s="164"/>
-      <c r="AJ4" s="164"/>
-      <c r="AK4" s="164"/>
-      <c r="AL4" s="165"/>
-      <c r="AM4" s="163" t="str">
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="169"/>
+      <c r="AM4" s="167" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="164"/>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="164"/>
-      <c r="AR4" s="164"/>
-      <c r="AS4" s="165"/>
-      <c r="AT4" s="163" t="str">
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="169"/>
+      <c r="AT4" s="167" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="164"/>
-      <c r="AW4" s="164"/>
-      <c r="AX4" s="164"/>
-      <c r="AY4" s="164"/>
-      <c r="AZ4" s="165"/>
-      <c r="BA4" s="163" t="str">
+      <c r="AU4" s="168"/>
+      <c r="AV4" s="168"/>
+      <c r="AW4" s="168"/>
+      <c r="AX4" s="168"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="169"/>
+      <c r="BA4" s="167" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="164"/>
-      <c r="BC4" s="164"/>
-      <c r="BD4" s="164"/>
-      <c r="BE4" s="164"/>
-      <c r="BF4" s="164"/>
-      <c r="BG4" s="165"/>
-      <c r="BH4" s="163" t="str">
+      <c r="BB4" s="168"/>
+      <c r="BC4" s="168"/>
+      <c r="BD4" s="168"/>
+      <c r="BE4" s="168"/>
+      <c r="BF4" s="168"/>
+      <c r="BG4" s="169"/>
+      <c r="BH4" s="167" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="164"/>
-      <c r="BJ4" s="164"/>
-      <c r="BK4" s="164"/>
-      <c r="BL4" s="164"/>
-      <c r="BM4" s="164"/>
-      <c r="BN4" s="165"/>
+      <c r="BI4" s="168"/>
+      <c r="BJ4" s="168"/>
+      <c r="BK4" s="168"/>
+      <c r="BL4" s="168"/>
+      <c r="BM4" s="168"/>
+      <c r="BN4" s="169"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="170" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
+      <c r="C5" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="166">
+      <c r="K5" s="171">
         <f>K6</f>
         <v>44116</v>
       </c>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="166">
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="171">
         <f>R6</f>
         <v>44123</v>
       </c>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="166">
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="171">
         <f>Y6</f>
         <v>44130</v>
       </c>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="166">
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="171">
         <f>AF6</f>
         <v>44137</v>
       </c>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="168"/>
-      <c r="AM5" s="166">
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="172"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="171">
         <f>AM6</f>
         <v>44144</v>
       </c>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="166">
+      <c r="AN5" s="172"/>
+      <c r="AO5" s="172"/>
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="172"/>
+      <c r="AR5" s="172"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="171">
         <f>AT6</f>
         <v>44151</v>
       </c>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="167"/>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="172"/>
+      <c r="AV5" s="172"/>
+      <c r="AW5" s="172"/>
+      <c r="AX5" s="172"/>
+      <c r="AY5" s="172"/>
+      <c r="AZ5" s="173"/>
+      <c r="BA5" s="171">
         <f>BA6</f>
         <v>44158</v>
       </c>
-      <c r="BB5" s="167"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="167"/>
-      <c r="BE5" s="167"/>
-      <c r="BF5" s="167"/>
-      <c r="BG5" s="168"/>
-      <c r="BH5" s="166">
+      <c r="BB5" s="172"/>
+      <c r="BC5" s="172"/>
+      <c r="BD5" s="172"/>
+      <c r="BE5" s="172"/>
+      <c r="BF5" s="172"/>
+      <c r="BG5" s="173"/>
+      <c r="BH5" s="171">
         <f>BH6</f>
         <v>44165</v>
       </c>
-      <c r="BI5" s="167"/>
-      <c r="BJ5" s="167"/>
-      <c r="BK5" s="167"/>
-      <c r="BL5" s="167"/>
-      <c r="BM5" s="167"/>
-      <c r="BN5" s="168"/>
+      <c r="BI5" s="172"/>
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="172"/>
+      <c r="BL5" s="172"/>
+      <c r="BM5" s="172"/>
+      <c r="BN5" s="173"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -4695,7 +4695,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="99">
@@ -4779,7 +4779,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="126"/>
       <c r="E10" s="99">
@@ -4863,7 +4863,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="126"/>
       <c r="E11" s="99">
@@ -4947,7 +4947,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="126"/>
       <c r="E12" s="99">
@@ -5031,7 +5031,7 @@
         <v>1.4.1</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="99">
@@ -5115,7 +5115,7 @@
         <v>1.4.2</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="126"/>
       <c r="E14" s="99">
@@ -5199,7 +5199,7 @@
         <v>1.5</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D15" s="126"/>
       <c r="E15" s="99">
@@ -5283,7 +5283,7 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="126"/>
       <c r="E16" s="99">
@@ -5527,7 +5527,7 @@
         <v>2.1</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="126"/>
       <c r="E19" s="99">
@@ -5611,7 +5611,7 @@
         <v>2.2</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="126"/>
       <c r="E20" s="99">
@@ -5695,7 +5695,7 @@
         <v>2.3</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="126"/>
       <c r="E21" s="99">
@@ -5779,7 +5779,7 @@
         <v>2.4</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="126"/>
       <c r="E22" s="99">
@@ -5863,7 +5863,7 @@
         <v>2.5</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="126"/>
       <c r="E23" s="99">
@@ -5947,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="101"/>
@@ -6025,7 +6025,7 @@
         <v>3.1</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="126"/>
       <c r="E25" s="99">
@@ -6109,7 +6109,7 @@
         <v>3.2</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D26" s="126"/>
       <c r="E26" s="99">
@@ -6193,15 +6193,15 @@
         <v>3.3</v>
       </c>
       <c r="B27" s="125" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D27" s="126"/>
       <c r="E27" s="99">
-        <v>44150</v>
+        <v>44145</v>
       </c>
       <c r="F27" s="100">
         <f t="shared" si="6"/>
-        <v>44152</v>
+        <v>44147</v>
       </c>
       <c r="G27" s="61">
         <v>3</v>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="I27" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="106"/>
@@ -6441,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="101"/>
@@ -6519,7 +6519,7 @@
         <v>4.1</v>
       </c>
       <c r="B31" s="125" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="99">
@@ -6603,7 +6603,7 @@
         <v>4.2</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="99">
@@ -6663,11 +6663,11 @@
       <c r="AU32" s="106"/>
       <c r="AV32" s="106"/>
       <c r="AW32" s="106"/>
-      <c r="AX32" s="174"/>
-      <c r="AY32" s="174"/>
-      <c r="AZ32" s="174"/>
-      <c r="BA32" s="174"/>
-      <c r="BB32" s="173"/>
+      <c r="AX32" s="164"/>
+      <c r="AY32" s="164"/>
+      <c r="AZ32" s="164"/>
+      <c r="BA32" s="164"/>
+      <c r="BB32" s="163"/>
       <c r="BC32" s="106"/>
       <c r="BD32" s="106"/>
       <c r="BE32" s="106"/>
@@ -6687,7 +6687,7 @@
         <v>4.3</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="99">
@@ -6771,7 +6771,7 @@
         <v>4.4</v>
       </c>
       <c r="B34" s="125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="99">
@@ -7605,15 +7605,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7624,6 +7615,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H43">
@@ -7985,10 +7985,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="172"/>
+      <c r="B13" s="174"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="133" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8050,10 +8050,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="172"/>
+      <c r="B24" s="174"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="143"/>
@@ -8126,10 +8126,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="172"/>
+      <c r="B38" s="174"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="140" t="s">
@@ -8166,10 +8166,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="172"/>
+      <c r="B49" s="174"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="140" t="s">
@@ -8267,10 +8267,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="172" t="s">
+      <c r="A65" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="172"/>
+      <c r="B65" s="174"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="140" t="s">
@@ -8281,10 +8281,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="172" t="s">
+      <c r="A68" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="172"/>
+      <c r="B68" s="174"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="155" t="s">
